--- a/measurements/detector_signals/cycle_1/434/radial_measurements_all.xlsx
+++ b/measurements/detector_signals/cycle_1/434/radial_measurements_all.xlsx
@@ -964,13 +964,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
       <c r="G3" t="n">
         <v>0.520444071106</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.00760959137843</v>
+        <v>-0.00656619940473</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -990,13 +990,13 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
       <c r="G4" t="n">
-        <v>0.639317093105</v>
+        <v>0.639317093106</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.00290636461627</v>
+        <v>0.00653745638759</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1016,13 +1016,13 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
       <c r="G5" t="n">
-        <v>0.698254137625</v>
+        <v>0.698254137626</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0235993970423</v>
+        <v>0.0119770187473</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1042,13 +1042,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>0.668214472727</v>
+        <v>0.677605084256</v>
       </c>
       <c r="G6" t="n">
-        <v>0.684269076214</v>
+        <v>0.684269076215</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0160546034867</v>
+        <v>0.00666399195857</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1068,13 +1068,13 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
       <c r="G7" t="n">
-        <v>0.698254137625</v>
+        <v>0.698254137626</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0235993970423</v>
+        <v>0.0119770187473</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1094,13 +1094,13 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
       <c r="G8" t="n">
-        <v>0.639317093105</v>
+        <v>0.639317093106</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.00290636461627</v>
+        <v>0.00653745638759</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1120,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
       <c r="G9" t="n">
         <v>0.520444071106</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.00760959137843</v>
+        <v>-0.00656619940473</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1146,13 +1146,13 @@
         <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.543419529139</v>
+        <v>0.54341952914</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000205783071019</v>
+        <v>-0.00364748924625</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1172,13 +1172,13 @@
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.749199718482</v>
+        <v>0.749199718483</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0032044652381</v>
+        <v>0.008775452482110001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1198,13 +1198,13 @@
         <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
       <c r="G12" t="n">
         <v>1.1457761028</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.009382295241369999</v>
+        <v>0.00740131570017</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1224,13 +1224,13 @@
         <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.90303539401</v>
+        <v>0.9030353940119999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0441236393644</v>
+        <v>0.0115542107326</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1250,13 +1250,13 @@
         <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>1.21076721732</v>
+        <v>1.18669927264</v>
       </c>
       <c r="G14" t="n">
-        <v>1.18273662224</v>
+        <v>1.18273662225</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0280305950763</v>
+        <v>-0.00396265039467</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1276,13 +1276,13 @@
         <v>27</v>
       </c>
       <c r="F15" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.90303539401</v>
+        <v>0.9030353940119999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0441236393644</v>
+        <v>0.0115542107326</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1302,13 +1302,13 @@
         <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
       <c r="G16" t="n">
         <v>1.1457761028</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.009382295241369999</v>
+        <v>0.00740131570017</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1328,13 +1328,13 @@
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.749199718482</v>
+        <v>0.749199718483</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0032044652381</v>
+        <v>0.008775452482110001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1354,13 +1354,13 @@
         <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
       <c r="G18" t="n">
-        <v>0.543419529139</v>
+        <v>0.54341952914</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000205783071019</v>
+        <v>-0.00364748924625</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1380,13 +1380,13 @@
         <v>35</v>
       </c>
       <c r="F19" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
       <c r="G19" t="n">
-        <v>0.543419529139</v>
+        <v>0.54341952914</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000205783071019</v>
+        <v>-0.00364748924625</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1406,13 +1406,13 @@
         <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.771785809891</v>
+        <v>0.7757049525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.767180511726</v>
+        <v>0.767180511727</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.00460529816533</v>
+        <v>-0.0085244407733</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1432,13 +1432,13 @@
         <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
       <c r="G21" t="n">
-        <v>1.05886893545</v>
+        <v>1.05886893546</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.00285521571529</v>
+        <v>0.00808651991613</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1458,13 +1458,13 @@
         <v>41</v>
       </c>
       <c r="F22" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
       <c r="G22" t="n">
-        <v>1.22668967239</v>
+        <v>1.2266896724</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0280867883447</v>
+        <v>-0.00504400468366</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1484,13 +1484,13 @@
         <v>43</v>
       </c>
       <c r="F23" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
       <c r="G23" t="n">
         <v>1.05487320362</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0253281124328</v>
+        <v>0.00130189269422</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1510,13 +1510,13 @@
         <v>45</v>
       </c>
       <c r="F24" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
       <c r="G24" t="n">
         <v>1.23268327014</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0208478379574</v>
+        <v>0.00335264709421</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1536,13 +1536,13 @@
         <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>1.06971904118</v>
+        <v>1.05836187666</v>
       </c>
       <c r="G25" t="n">
         <v>1.06186573433</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.007853306851360001</v>
+        <v>0.00350385767006</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1562,13 +1562,13 @@
         <v>48</v>
       </c>
       <c r="F26" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
       <c r="G26" t="n">
         <v>1.23268327014</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0208478379574</v>
+        <v>0.00335264709421</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1588,13 +1588,13 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
       <c r="G27" t="n">
         <v>1.05487320362</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0253281124328</v>
+        <v>0.00130189269422</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1614,13 +1614,13 @@
         <v>51</v>
       </c>
       <c r="F28" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
       <c r="G28" t="n">
-        <v>1.22668967239</v>
+        <v>1.2266896724</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0280867883447</v>
+        <v>-0.00504400468366</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1640,13 +1640,13 @@
         <v>53</v>
       </c>
       <c r="F29" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
       <c r="G29" t="n">
-        <v>1.05886893545</v>
+        <v>1.05886893546</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.00285521571529</v>
+        <v>0.00808651991613</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1666,13 +1666,13 @@
         <v>55</v>
       </c>
       <c r="F30" t="n">
-        <v>0.771785809891</v>
+        <v>0.7757049525</v>
       </c>
       <c r="G30" t="n">
-        <v>0.767180511726</v>
+        <v>0.767180511727</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.00460529816533</v>
+        <v>-0.0085244407733</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1692,13 +1692,13 @@
         <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
       <c r="G31" t="n">
-        <v>0.543419529139</v>
+        <v>0.54341952914</v>
       </c>
       <c r="H31" t="n">
-        <v>0.000205783071019</v>
+        <v>-0.00364748924625</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1718,13 +1718,13 @@
         <v>20</v>
       </c>
       <c r="F32" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.749199718482</v>
+        <v>0.749199718483</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0032044652381</v>
+        <v>0.008775452482110001</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1744,13 +1744,13 @@
         <v>22</v>
       </c>
       <c r="F33" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
       <c r="G33" t="n">
-        <v>1.05886893545</v>
+        <v>1.05886893546</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.00285521571529</v>
+        <v>0.00808651991613</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1770,13 +1770,13 @@
         <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>1.13352739122</v>
+        <v>1.12280563261</v>
       </c>
       <c r="G34" t="n">
         <v>1.14477716984</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0112497786207</v>
+        <v>0.0219715372322</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1796,13 +1796,13 @@
         <v>62</v>
       </c>
       <c r="F35" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
       <c r="G35" t="n">
         <v>1.23767793493</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.0136801223676</v>
+        <v>-0.0050516727559</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1822,13 +1822,13 @@
         <v>64</v>
       </c>
       <c r="F36" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
       <c r="G36" t="n">
-        <v>1.07884759461</v>
+        <v>1.07884759462</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0105808377058</v>
+        <v>-0.00413655253432</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1848,13 +1848,13 @@
         <v>23</v>
       </c>
       <c r="F37" t="n">
-        <v>1.26217243888</v>
+        <v>1.24097841711</v>
       </c>
       <c r="G37" t="n">
         <v>1.22968647127</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0324859676114</v>
+        <v>-0.0112919458397</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1874,13 +1874,13 @@
         <v>67</v>
       </c>
       <c r="F38" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
       <c r="G38" t="n">
-        <v>1.07884759461</v>
+        <v>1.07884759462</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.0105808377058</v>
+        <v>-0.00413655253432</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1900,13 +1900,13 @@
         <v>69</v>
       </c>
       <c r="F39" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
       <c r="G39" t="n">
         <v>1.23767793493</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0136801223676</v>
+        <v>-0.0050516727559</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1926,13 +1926,13 @@
         <v>71</v>
       </c>
       <c r="F40" t="n">
-        <v>1.13352739122</v>
+        <v>1.12280563261</v>
       </c>
       <c r="G40" t="n">
         <v>1.14477716984</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0112497786207</v>
+        <v>0.0219715372322</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1952,13 +1952,13 @@
         <v>73</v>
       </c>
       <c r="F41" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
       <c r="G41" t="n">
-        <v>1.05886893545</v>
+        <v>1.05886893546</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.00285521571529</v>
+        <v>0.00808651991613</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1978,13 +1978,13 @@
         <v>75</v>
       </c>
       <c r="F42" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
       <c r="G42" t="n">
-        <v>0.749199718482</v>
+        <v>0.749199718483</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0032044652381</v>
+        <v>0.008775452482110001</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2004,13 +2004,13 @@
         <v>77</v>
       </c>
       <c r="F43" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
       <c r="G43" t="n">
         <v>0.520444071106</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.00760959137843</v>
+        <v>-0.00656619940473</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2030,13 +2030,13 @@
         <v>79</v>
       </c>
       <c r="F44" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
       <c r="G44" t="n">
-        <v>1.22668967239</v>
+        <v>1.2266896724</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0280867883447</v>
+        <v>-0.00504400468366</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2056,13 +2056,13 @@
         <v>25</v>
       </c>
       <c r="F45" t="n">
-        <v>1.25497276756</v>
+        <v>1.26513849427</v>
       </c>
       <c r="G45" t="n">
         <v>1.25066406339</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.00430870417387</v>
+        <v>-0.0144744308822</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2082,13 +2082,13 @@
         <v>82</v>
       </c>
       <c r="F46" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
       <c r="G46" t="n">
         <v>1.07984652757</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.00464274797779</v>
+        <v>-0.00147211277635</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2108,13 +2108,13 @@
         <v>84</v>
       </c>
       <c r="F47" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
       <c r="G47" t="n">
         <v>1.22369287352</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.0255629489892</v>
+        <v>-0.00667758677759</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2134,13 +2134,13 @@
         <v>86</v>
       </c>
       <c r="F48" t="n">
-        <v>0.997460017665</v>
+        <v>1.06985808386</v>
       </c>
       <c r="G48" t="n">
         <v>1.07085613095</v>
       </c>
       <c r="H48" t="n">
-        <v>0.07339611328539999</v>
+        <v>0.000998047091857</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2160,13 +2160,13 @@
         <v>26</v>
       </c>
       <c r="F49" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
       <c r="G49" t="n">
         <v>1.22369287352</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0255629489892</v>
+        <v>-0.00667758677759</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2186,13 +2186,13 @@
         <v>89</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
       <c r="G50" t="n">
         <v>1.07984652757</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.00464274797779</v>
+        <v>-0.00147211277635</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2212,13 +2212,13 @@
         <v>28</v>
       </c>
       <c r="F51" t="n">
-        <v>1.25497276756</v>
+        <v>1.26513849427</v>
       </c>
       <c r="G51" t="n">
         <v>1.25066406339</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.00430870417387</v>
+        <v>-0.0144744308822</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2238,13 +2238,13 @@
         <v>30</v>
       </c>
       <c r="F52" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
       <c r="G52" t="n">
-        <v>1.22668967239</v>
+        <v>1.2266896724</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0280867883447</v>
+        <v>-0.00504400468366</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2264,13 +2264,13 @@
         <v>93</v>
       </c>
       <c r="F53" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
       <c r="G53" t="n">
         <v>0.520444071106</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.00760959137843</v>
+        <v>-0.00656619940473</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2290,13 +2290,13 @@
         <v>32</v>
       </c>
       <c r="F54" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
       <c r="G54" t="n">
-        <v>0.639317093105</v>
+        <v>0.639317093106</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.00290636461627</v>
+        <v>0.00653745638759</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2316,13 +2316,13 @@
         <v>96</v>
       </c>
       <c r="F55" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
       <c r="G55" t="n">
         <v>1.1457761028</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.009382295241369999</v>
+        <v>0.00740131570017</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2342,13 +2342,13 @@
         <v>34</v>
       </c>
       <c r="F56" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
       <c r="G56" t="n">
         <v>1.05487320362</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0253281124328</v>
+        <v>0.00130189269422</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2368,13 +2368,13 @@
         <v>99</v>
       </c>
       <c r="F57" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
       <c r="G57" t="n">
         <v>1.23767793493</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.0136801223676</v>
+        <v>-0.0050516727559</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2394,13 +2394,13 @@
         <v>101</v>
       </c>
       <c r="F58" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
       <c r="G58" t="n">
         <v>1.07984652757</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.00464274797779</v>
+        <v>-0.00147211277635</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2420,13 +2420,13 @@
         <v>36</v>
       </c>
       <c r="F59" t="n">
-        <v>1.25510517048</v>
+        <v>1.24110823539</v>
       </c>
       <c r="G59" t="n">
-        <v>1.2216950076</v>
+        <v>1.22169500761</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.0334101628752</v>
+        <v>-0.0194132277835</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2434,13 +2434,13 @@
         <v>103</v>
       </c>
       <c r="F60" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
       <c r="G60" t="n">
         <v>1.06586146616</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.0103507890295</v>
+        <v>0.000886834701969</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2448,13 +2448,13 @@
         <v>38</v>
       </c>
       <c r="F61" t="n">
-        <v>1.24035203217</v>
+        <v>1.22337035235</v>
       </c>
       <c r="G61" t="n">
         <v>1.21370354394</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.026648488229</v>
+        <v>-0.009666808407360001</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2462,13 +2462,13 @@
         <v>104</v>
       </c>
       <c r="F62" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
       <c r="G62" t="n">
         <v>1.06586146616</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.0103507890295</v>
+        <v>0.000886834701969</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2476,13 +2476,13 @@
         <v>105</v>
       </c>
       <c r="F63" t="n">
-        <v>1.25510517048</v>
+        <v>1.24110823539</v>
       </c>
       <c r="G63" t="n">
-        <v>1.2216950076</v>
+        <v>1.22169500761</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.0334101628752</v>
+        <v>-0.0194132277835</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2490,13 +2490,13 @@
         <v>106</v>
       </c>
       <c r="F64" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
       <c r="G64" t="n">
         <v>1.07984652757</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.00464274797779</v>
+        <v>-0.00147211277635</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2504,13 +2504,13 @@
         <v>107</v>
       </c>
       <c r="F65" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
       <c r="G65" t="n">
         <v>1.23767793493</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.0136801223676</v>
+        <v>-0.0050516727559</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2518,13 +2518,13 @@
         <v>108</v>
       </c>
       <c r="F66" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
       <c r="G66" t="n">
         <v>1.05487320362</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0253281124328</v>
+        <v>0.00130189269422</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2532,13 +2532,13 @@
         <v>40</v>
       </c>
       <c r="F67" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
       <c r="G67" t="n">
         <v>1.1457761028</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.009382295241369999</v>
+        <v>0.00740131570017</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2546,13 +2546,13 @@
         <v>109</v>
       </c>
       <c r="F68" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
       <c r="G68" t="n">
-        <v>0.639317093105</v>
+        <v>0.639317093106</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.00290636461627</v>
+        <v>0.00653745638759</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2560,13 +2560,13 @@
         <v>110</v>
       </c>
       <c r="F69" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
       <c r="G69" t="n">
-        <v>0.698254137625</v>
+        <v>0.698254137626</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0235993970423</v>
+        <v>0.0119770187473</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2574,13 +2574,13 @@
         <v>111</v>
       </c>
       <c r="F70" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
       <c r="G70" t="n">
-        <v>0.90303539401</v>
+        <v>0.9030353940119999</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0441236393644</v>
+        <v>0.0115542107326</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2588,13 +2588,13 @@
         <v>112</v>
       </c>
       <c r="F71" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
       <c r="G71" t="n">
         <v>1.23268327014</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.0208478379574</v>
+        <v>0.00335264709421</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2602,13 +2602,13 @@
         <v>42</v>
       </c>
       <c r="F72" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
       <c r="G72" t="n">
-        <v>1.07884759461</v>
+        <v>1.07884759462</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.0105808377058</v>
+        <v>-0.00413655253432</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2616,13 +2616,13 @@
         <v>113</v>
       </c>
       <c r="F73" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
       <c r="G73" t="n">
         <v>1.22369287352</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.0255629489892</v>
+        <v>-0.00667758677759</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2630,13 +2630,13 @@
         <v>114</v>
       </c>
       <c r="F74" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
       <c r="G74" t="n">
         <v>1.06586146616</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.0103507890295</v>
+        <v>0.000886834701969</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2644,13 +2644,13 @@
         <v>44</v>
       </c>
       <c r="F75" t="n">
-        <v>1.18874837253</v>
+        <v>1.22323472279</v>
       </c>
       <c r="G75" t="n">
         <v>1.21070674507</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0219583725371</v>
+        <v>-0.0125279777213</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2658,13 +2658,13 @@
         <v>115</v>
       </c>
       <c r="F76" t="n">
-        <v>1.06245908802</v>
+        <v>1.05271528675</v>
       </c>
       <c r="G76" t="n">
         <v>1.04488387404</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.017575213977</v>
+        <v>-0.00783141270556</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2672,13 +2672,13 @@
         <v>116</v>
       </c>
       <c r="F77" t="n">
-        <v>1.18874837253</v>
+        <v>1.22323472279</v>
       </c>
       <c r="G77" t="n">
         <v>1.21070674507</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0219583725371</v>
+        <v>-0.0125279777213</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2686,13 +2686,13 @@
         <v>46</v>
       </c>
       <c r="F78" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
       <c r="G78" t="n">
         <v>1.06586146616</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.0103507890295</v>
+        <v>0.000886834701969</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2700,13 +2700,13 @@
         <v>117</v>
       </c>
       <c r="F79" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
       <c r="G79" t="n">
         <v>1.22369287352</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.0255629489892</v>
+        <v>-0.00667758677759</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2714,13 +2714,13 @@
         <v>118</v>
       </c>
       <c r="F80" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
       <c r="G80" t="n">
-        <v>1.07884759461</v>
+        <v>1.07884759462</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.0105808377058</v>
+        <v>-0.00413655253432</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2728,13 +2728,13 @@
         <v>47</v>
       </c>
       <c r="F81" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
       <c r="G81" t="n">
         <v>1.23268327014</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.0208478379574</v>
+        <v>0.00335264709421</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2742,13 +2742,13 @@
         <v>119</v>
       </c>
       <c r="F82" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
       <c r="G82" t="n">
-        <v>0.90303539401</v>
+        <v>0.9030353940119999</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0441236393644</v>
+        <v>0.0115542107326</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2756,13 +2756,13 @@
         <v>120</v>
       </c>
       <c r="F83" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
       <c r="G83" t="n">
-        <v>0.698254137625</v>
+        <v>0.698254137626</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0235993970423</v>
+        <v>0.0119770187473</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2770,13 +2770,13 @@
         <v>49</v>
       </c>
       <c r="F84" t="n">
-        <v>0.668214472727</v>
+        <v>0.677605084256</v>
       </c>
       <c r="G84" t="n">
-        <v>0.684269076214</v>
+        <v>0.684269076215</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0160546034867</v>
+        <v>0.00666399195857</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2784,13 +2784,13 @@
         <v>121</v>
       </c>
       <c r="F85" t="n">
-        <v>1.21076721732</v>
+        <v>1.18669927264</v>
       </c>
       <c r="G85" t="n">
-        <v>1.18273662224</v>
+        <v>1.18273662225</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.0280305950763</v>
+        <v>-0.00396265039467</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2798,13 +2798,13 @@
         <v>50</v>
       </c>
       <c r="F86" t="n">
-        <v>1.06971904118</v>
+        <v>1.05836187666</v>
       </c>
       <c r="G86" t="n">
         <v>1.06186573433</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.007853306851360001</v>
+        <v>0.00350385767006</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2812,13 +2812,13 @@
         <v>122</v>
       </c>
       <c r="F87" t="n">
-        <v>1.26217243888</v>
+        <v>1.24097841711</v>
       </c>
       <c r="G87" t="n">
         <v>1.22968647127</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.0324859676114</v>
+        <v>-0.0112919458397</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2826,13 +2826,13 @@
         <v>52</v>
       </c>
       <c r="F88" t="n">
-        <v>0.997460017665</v>
+        <v>1.06985808386</v>
       </c>
       <c r="G88" t="n">
         <v>1.07085613095</v>
       </c>
       <c r="H88" t="n">
-        <v>0.07339611328539999</v>
+        <v>0.000998047091857</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2840,13 +2840,13 @@
         <v>123</v>
       </c>
       <c r="F89" t="n">
-        <v>1.24035203217</v>
+        <v>1.22337035235</v>
       </c>
       <c r="G89" t="n">
         <v>1.21370354394</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.026648488229</v>
+        <v>-0.009666808407360001</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2854,13 +2854,13 @@
         <v>54</v>
       </c>
       <c r="F90" t="n">
-        <v>1.06245908802</v>
+        <v>1.05271528675</v>
       </c>
       <c r="G90" t="n">
         <v>1.04488387404</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.017575213977</v>
+        <v>-0.00783141270556</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -2868,13 +2868,13 @@
         <v>124</v>
       </c>
       <c r="F91" t="n">
-        <v>1.06245908802</v>
+        <v>1.05271528675</v>
       </c>
       <c r="G91" t="n">
         <v>1.04488387404</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.017575213977</v>
+        <v>-0.00783141270556</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -2882,13 +2882,13 @@
         <v>56</v>
       </c>
       <c r="F92" t="n">
-        <v>1.24035203217</v>
+        <v>1.22337035235</v>
       </c>
       <c r="G92" t="n">
         <v>1.21370354394</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.026648488229</v>
+        <v>-0.009666808407360001</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -2896,13 +2896,13 @@
         <v>125</v>
       </c>
       <c r="F93" t="n">
-        <v>0.997460017665</v>
+        <v>1.06985808386</v>
       </c>
       <c r="G93" t="n">
         <v>1.07085613095</v>
       </c>
       <c r="H93" t="n">
-        <v>0.07339611328539999</v>
+        <v>0.000998047091857</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -2910,13 +2910,13 @@
         <v>57</v>
       </c>
       <c r="F94" t="n">
-        <v>1.26217243888</v>
+        <v>1.24097841711</v>
       </c>
       <c r="G94" t="n">
         <v>1.22968647127</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.0324859676114</v>
+        <v>-0.0112919458397</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -2924,13 +2924,13 @@
         <v>58</v>
       </c>
       <c r="F95" t="n">
-        <v>1.06971904118</v>
+        <v>1.05836187666</v>
       </c>
       <c r="G95" t="n">
         <v>1.06186573433</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.007853306851360001</v>
+        <v>0.00350385767006</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -2938,13 +2938,13 @@
         <v>59</v>
       </c>
       <c r="F96" t="n">
-        <v>1.21076721732</v>
+        <v>1.18669927264</v>
       </c>
       <c r="G96" t="n">
-        <v>1.18273662224</v>
+        <v>1.18273662225</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.0280305950763</v>
+        <v>-0.00396265039467</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -2952,13 +2952,13 @@
         <v>126</v>
       </c>
       <c r="F97" t="n">
-        <v>0.668214472727</v>
+        <v>0.677605084256</v>
       </c>
       <c r="G97" t="n">
-        <v>0.684269076214</v>
+        <v>0.684269076215</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0160546034867</v>
+        <v>0.00666399195857</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -2966,13 +2966,13 @@
         <v>127</v>
       </c>
       <c r="F98" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
       <c r="G98" t="n">
-        <v>0.698254137625</v>
+        <v>0.698254137626</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0235993970423</v>
+        <v>0.0119770187473</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -2980,13 +2980,13 @@
         <v>61</v>
       </c>
       <c r="F99" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
       <c r="G99" t="n">
-        <v>0.90303539401</v>
+        <v>0.9030353940119999</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0441236393644</v>
+        <v>0.0115542107326</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -2994,13 +2994,13 @@
         <v>128</v>
       </c>
       <c r="F100" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
       <c r="G100" t="n">
         <v>1.23268327014</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.0208478379574</v>
+        <v>0.00335264709421</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3008,13 +3008,13 @@
         <v>129</v>
       </c>
       <c r="F101" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
       <c r="G101" t="n">
-        <v>1.07884759461</v>
+        <v>1.07884759462</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.0105808377058</v>
+        <v>-0.00413655253432</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3022,13 +3022,13 @@
         <v>130</v>
       </c>
       <c r="F102" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
       <c r="G102" t="n">
         <v>1.22369287352</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.0255629489892</v>
+        <v>-0.00667758677759</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3036,13 +3036,13 @@
         <v>131</v>
       </c>
       <c r="F103" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
       <c r="G103" t="n">
         <v>1.06586146616</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.0103507890295</v>
+        <v>0.000886834701969</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3050,13 +3050,13 @@
         <v>132</v>
       </c>
       <c r="F104" t="n">
-        <v>1.18874837253</v>
+        <v>1.22323472279</v>
       </c>
       <c r="G104" t="n">
         <v>1.21070674507</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0219583725371</v>
+        <v>-0.0125279777213</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3064,13 +3064,13 @@
         <v>133</v>
       </c>
       <c r="F105" t="n">
-        <v>1.06245908802</v>
+        <v>1.05271528675</v>
       </c>
       <c r="G105" t="n">
         <v>1.04488387404</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.017575213977</v>
+        <v>-0.00783141270556</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3078,13 +3078,13 @@
         <v>63</v>
       </c>
       <c r="F106" t="n">
-        <v>1.18874837253</v>
+        <v>1.22323472279</v>
       </c>
       <c r="G106" t="n">
         <v>1.21070674507</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0219583725371</v>
+        <v>-0.0125279777213</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3092,13 +3092,13 @@
         <v>134</v>
       </c>
       <c r="F107" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
       <c r="G107" t="n">
         <v>1.06586146616</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.0103507890295</v>
+        <v>0.000886834701969</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3106,13 +3106,13 @@
         <v>65</v>
       </c>
       <c r="F108" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
       <c r="G108" t="n">
         <v>1.22369287352</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.0255629489892</v>
+        <v>-0.00667758677759</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3120,13 +3120,13 @@
         <v>135</v>
       </c>
       <c r="F109" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
       <c r="G109" t="n">
-        <v>1.07884759461</v>
+        <v>1.07884759462</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.0105808377058</v>
+        <v>-0.00413655253432</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3134,13 +3134,13 @@
         <v>136</v>
       </c>
       <c r="F110" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
       <c r="G110" t="n">
         <v>1.23268327014</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.0208478379574</v>
+        <v>0.00335264709421</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3148,13 +3148,13 @@
         <v>137</v>
       </c>
       <c r="F111" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
       <c r="G111" t="n">
-        <v>0.90303539401</v>
+        <v>0.9030353940119999</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0441236393644</v>
+        <v>0.0115542107326</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3162,13 +3162,13 @@
         <v>66</v>
       </c>
       <c r="F112" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
       <c r="G112" t="n">
-        <v>0.698254137625</v>
+        <v>0.698254137626</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0235993970423</v>
+        <v>0.0119770187473</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -3176,13 +3176,13 @@
         <v>138</v>
       </c>
       <c r="F113" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
       <c r="G113" t="n">
-        <v>0.639317093105</v>
+        <v>0.639317093106</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.00290636461627</v>
+        <v>0.00653745638759</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -3190,13 +3190,13 @@
         <v>139</v>
       </c>
       <c r="F114" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
       <c r="G114" t="n">
         <v>1.1457761028</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.009382295241369999</v>
+        <v>0.00740131570017</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -3204,13 +3204,13 @@
         <v>140</v>
       </c>
       <c r="F115" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
       <c r="G115" t="n">
         <v>1.05487320362</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0253281124328</v>
+        <v>0.00130189269422</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="F116" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
       <c r="G116" t="n">
         <v>1.23767793493</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.0136801223676</v>
+        <v>-0.0050516727559</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -3232,13 +3232,13 @@
         <v>68</v>
       </c>
       <c r="F117" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
       <c r="G117" t="n">
         <v>1.07984652757</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.00464274797779</v>
+        <v>-0.00147211277635</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -3246,13 +3246,13 @@
         <v>142</v>
       </c>
       <c r="F118" t="n">
-        <v>1.25510517048</v>
+        <v>1.24110823539</v>
       </c>
       <c r="G118" t="n">
-        <v>1.2216950076</v>
+        <v>1.22169500761</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.0334101628752</v>
+        <v>-0.0194132277835</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -3260,13 +3260,13 @@
         <v>70</v>
       </c>
       <c r="F119" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
       <c r="G119" t="n">
         <v>1.06586146616</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.0103507890295</v>
+        <v>0.000886834701969</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -3274,13 +3274,13 @@
         <v>143</v>
       </c>
       <c r="F120" t="n">
-        <v>1.24035203217</v>
+        <v>1.22337035235</v>
       </c>
       <c r="G120" t="n">
         <v>1.21370354394</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.026648488229</v>
+        <v>-0.009666808407360001</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -3288,13 +3288,13 @@
         <v>144</v>
       </c>
       <c r="F121" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
       <c r="G121" t="n">
         <v>1.06586146616</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.0103507890295</v>
+        <v>0.000886834701969</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -3302,13 +3302,13 @@
         <v>145</v>
       </c>
       <c r="F122" t="n">
-        <v>1.25510517048</v>
+        <v>1.24110823539</v>
       </c>
       <c r="G122" t="n">
-        <v>1.2216950076</v>
+        <v>1.22169500761</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.0334101628752</v>
+        <v>-0.0194132277835</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -3316,13 +3316,13 @@
         <v>146</v>
       </c>
       <c r="F123" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
       <c r="G123" t="n">
         <v>1.07984652757</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.00464274797779</v>
+        <v>-0.00147211277635</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -3330,13 +3330,13 @@
         <v>72</v>
       </c>
       <c r="F124" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
       <c r="G124" t="n">
         <v>1.23767793493</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.0136801223676</v>
+        <v>-0.0050516727559</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -3344,13 +3344,13 @@
         <v>147</v>
       </c>
       <c r="F125" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
       <c r="G125" t="n">
         <v>1.05487320362</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0253281124328</v>
+        <v>0.00130189269422</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="F126" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
       <c r="G126" t="n">
         <v>1.1457761028</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.009382295241369999</v>
+        <v>0.00740131570017</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -3372,13 +3372,13 @@
         <v>149</v>
       </c>
       <c r="F127" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
       <c r="G127" t="n">
-        <v>0.639317093105</v>
+        <v>0.639317093106</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.00290636461627</v>
+        <v>0.00653745638759</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -3386,13 +3386,13 @@
         <v>74</v>
       </c>
       <c r="F128" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
       <c r="G128" t="n">
         <v>0.520444071106</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.00760959137843</v>
+        <v>-0.00656619940473</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -3400,13 +3400,13 @@
         <v>150</v>
       </c>
       <c r="F129" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
       <c r="G129" t="n">
-        <v>1.22668967239</v>
+        <v>1.2266896724</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0280867883447</v>
+        <v>-0.00504400468366</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -3414,13 +3414,13 @@
         <v>76</v>
       </c>
       <c r="F130" t="n">
-        <v>1.25497276756</v>
+        <v>1.26513849427</v>
       </c>
       <c r="G130" t="n">
         <v>1.25066406339</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.00430870417387</v>
+        <v>-0.0144744308822</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -3428,13 +3428,13 @@
         <v>151</v>
       </c>
       <c r="F131" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
       <c r="G131" t="n">
         <v>1.07984652757</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.00464274797779</v>
+        <v>-0.00147211277635</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -3442,13 +3442,13 @@
         <v>152</v>
       </c>
       <c r="F132" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
       <c r="G132" t="n">
         <v>1.22369287352</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.0255629489892</v>
+        <v>-0.00667758677759</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -3456,13 +3456,13 @@
         <v>78</v>
       </c>
       <c r="F133" t="n">
-        <v>0.997460017665</v>
+        <v>1.06985808386</v>
       </c>
       <c r="G133" t="n">
         <v>1.07085613095</v>
       </c>
       <c r="H133" t="n">
-        <v>0.07339611328539999</v>
+        <v>0.000998047091857</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -3470,13 +3470,13 @@
         <v>153</v>
       </c>
       <c r="F134" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
       <c r="G134" t="n">
         <v>1.22369287352</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.0255629489892</v>
+        <v>-0.00667758677759</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -3484,13 +3484,13 @@
         <v>154</v>
       </c>
       <c r="F135" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
       <c r="G135" t="n">
         <v>1.07984652757</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.00464274797779</v>
+        <v>-0.00147211277635</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -3498,13 +3498,13 @@
         <v>80</v>
       </c>
       <c r="F136" t="n">
-        <v>1.25497276756</v>
+        <v>1.26513849427</v>
       </c>
       <c r="G136" t="n">
         <v>1.25066406339</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.00430870417387</v>
+        <v>-0.0144744308822</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -3512,13 +3512,13 @@
         <v>155</v>
       </c>
       <c r="F137" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
       <c r="G137" t="n">
-        <v>1.22668967239</v>
+        <v>1.2266896724</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0280867883447</v>
+        <v>-0.00504400468366</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -3526,13 +3526,13 @@
         <v>81</v>
       </c>
       <c r="F138" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
       <c r="G138" t="n">
         <v>0.520444071106</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.00760959137843</v>
+        <v>-0.00656619940473</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -3540,13 +3540,13 @@
         <v>156</v>
       </c>
       <c r="F139" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
       <c r="G139" t="n">
-        <v>0.749199718482</v>
+        <v>0.749199718483</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0032044652381</v>
+        <v>0.008775452482110001</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -3554,13 +3554,13 @@
         <v>157</v>
       </c>
       <c r="F140" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
       <c r="G140" t="n">
-        <v>1.05886893545</v>
+        <v>1.05886893546</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.00285521571529</v>
+        <v>0.00808651991613</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -3568,13 +3568,13 @@
         <v>158</v>
       </c>
       <c r="F141" t="n">
-        <v>1.13352739122</v>
+        <v>1.12280563261</v>
       </c>
       <c r="G141" t="n">
         <v>1.14477716984</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0112497786207</v>
+        <v>0.0219715372322</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -3582,13 +3582,13 @@
         <v>83</v>
       </c>
       <c r="F142" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
       <c r="G142" t="n">
         <v>1.23767793493</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.0136801223676</v>
+        <v>-0.0050516727559</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -3596,13 +3596,13 @@
         <v>159</v>
       </c>
       <c r="F143" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
       <c r="G143" t="n">
-        <v>1.07884759461</v>
+        <v>1.07884759462</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.0105808377058</v>
+        <v>-0.00413655253432</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -3610,13 +3610,13 @@
         <v>160</v>
       </c>
       <c r="F144" t="n">
-        <v>1.26217243888</v>
+        <v>1.24097841711</v>
       </c>
       <c r="G144" t="n">
         <v>1.22968647127</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.0324859676114</v>
+        <v>-0.0112919458397</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -3624,13 +3624,13 @@
         <v>85</v>
       </c>
       <c r="F145" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
       <c r="G145" t="n">
-        <v>1.07884759461</v>
+        <v>1.07884759462</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.0105808377058</v>
+        <v>-0.00413655253432</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -3638,13 +3638,13 @@
         <v>161</v>
       </c>
       <c r="F146" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
       <c r="G146" t="n">
         <v>1.23767793493</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.0136801223676</v>
+        <v>-0.0050516727559</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -3652,13 +3652,13 @@
         <v>87</v>
       </c>
       <c r="F147" t="n">
-        <v>1.13352739122</v>
+        <v>1.12280563261</v>
       </c>
       <c r="G147" t="n">
         <v>1.14477716984</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0112497786207</v>
+        <v>0.0219715372322</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -3666,13 +3666,13 @@
         <v>162</v>
       </c>
       <c r="F148" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
       <c r="G148" t="n">
-        <v>1.05886893545</v>
+        <v>1.05886893546</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.00285521571529</v>
+        <v>0.00808651991613</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -3680,13 +3680,13 @@
         <v>163</v>
       </c>
       <c r="F149" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
       <c r="G149" t="n">
-        <v>0.749199718482</v>
+        <v>0.749199718483</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0032044652381</v>
+        <v>0.008775452482110001</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -3694,13 +3694,13 @@
         <v>164</v>
       </c>
       <c r="F150" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
       <c r="G150" t="n">
-        <v>0.543419529139</v>
+        <v>0.54341952914</v>
       </c>
       <c r="H150" t="n">
-        <v>0.000205783071019</v>
+        <v>-0.00364748924625</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -3708,13 +3708,13 @@
         <v>88</v>
       </c>
       <c r="F151" t="n">
-        <v>0.771785809891</v>
+        <v>0.7757049525</v>
       </c>
       <c r="G151" t="n">
-        <v>0.767180511726</v>
+        <v>0.767180511727</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.00460529816533</v>
+        <v>-0.0085244407733</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -3722,13 +3722,13 @@
         <v>165</v>
       </c>
       <c r="F152" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
       <c r="G152" t="n">
-        <v>1.05886893545</v>
+        <v>1.05886893546</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.00285521571529</v>
+        <v>0.00808651991613</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -3736,13 +3736,13 @@
         <v>90</v>
       </c>
       <c r="F153" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
       <c r="G153" t="n">
-        <v>1.22668967239</v>
+        <v>1.2266896724</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0280867883447</v>
+        <v>-0.00504400468366</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -3750,13 +3750,13 @@
         <v>166</v>
       </c>
       <c r="F154" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
       <c r="G154" t="n">
         <v>1.05487320362</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0253281124328</v>
+        <v>0.00130189269422</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -3764,13 +3764,13 @@
         <v>167</v>
       </c>
       <c r="F155" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
       <c r="G155" t="n">
         <v>1.23268327014</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.0208478379574</v>
+        <v>0.00335264709421</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -3778,13 +3778,13 @@
         <v>91</v>
       </c>
       <c r="F156" t="n">
-        <v>1.06971904118</v>
+        <v>1.05836187666</v>
       </c>
       <c r="G156" t="n">
         <v>1.06186573433</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.007853306851360001</v>
+        <v>0.00350385767006</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -3792,13 +3792,13 @@
         <v>168</v>
       </c>
       <c r="F157" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
       <c r="G157" t="n">
         <v>1.23268327014</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.0208478379574</v>
+        <v>0.00335264709421</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -3806,13 +3806,13 @@
         <v>169</v>
       </c>
       <c r="F158" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
       <c r="G158" t="n">
         <v>1.05487320362</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0253281124328</v>
+        <v>0.00130189269422</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -3820,13 +3820,13 @@
         <v>170</v>
       </c>
       <c r="F159" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
       <c r="G159" t="n">
-        <v>1.22668967239</v>
+        <v>1.2266896724</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0280867883447</v>
+        <v>-0.00504400468366</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -3834,13 +3834,13 @@
         <v>171</v>
       </c>
       <c r="F160" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
       <c r="G160" t="n">
-        <v>1.05886893545</v>
+        <v>1.05886893546</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.00285521571529</v>
+        <v>0.00808651991613</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -3848,13 +3848,13 @@
         <v>172</v>
       </c>
       <c r="F161" t="n">
-        <v>0.771785809891</v>
+        <v>0.7757049525</v>
       </c>
       <c r="G161" t="n">
-        <v>0.767180511726</v>
+        <v>0.767180511727</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.00460529816533</v>
+        <v>-0.0085244407733</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -3862,13 +3862,13 @@
         <v>92</v>
       </c>
       <c r="F162" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
       <c r="G162" t="n">
-        <v>0.543419529139</v>
+        <v>0.54341952914</v>
       </c>
       <c r="H162" t="n">
-        <v>0.000205783071019</v>
+        <v>-0.00364748924625</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -3876,13 +3876,13 @@
         <v>94</v>
       </c>
       <c r="F163" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
       <c r="G163" t="n">
-        <v>0.543419529139</v>
+        <v>0.54341952914</v>
       </c>
       <c r="H163" t="n">
-        <v>0.000205783071019</v>
+        <v>-0.00364748924625</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -3890,13 +3890,13 @@
         <v>173</v>
       </c>
       <c r="F164" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
       <c r="G164" t="n">
-        <v>0.749199718482</v>
+        <v>0.749199718483</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0032044652381</v>
+        <v>0.008775452482110001</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -3904,13 +3904,13 @@
         <v>174</v>
       </c>
       <c r="F165" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
       <c r="G165" t="n">
         <v>1.1457761028</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.009382295241369999</v>
+        <v>0.00740131570017</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -3918,13 +3918,13 @@
         <v>95</v>
       </c>
       <c r="F166" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
       <c r="G166" t="n">
-        <v>0.90303539401</v>
+        <v>0.9030353940119999</v>
       </c>
       <c r="H166" t="n">
-        <v>0.0441236393644</v>
+        <v>0.0115542107326</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -3932,13 +3932,13 @@
         <v>175</v>
       </c>
       <c r="F167" t="n">
-        <v>1.21076721732</v>
+        <v>1.18669927264</v>
       </c>
       <c r="G167" t="n">
-        <v>1.18273662224</v>
+        <v>1.18273662225</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.0280305950763</v>
+        <v>-0.00396265039467</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -3946,13 +3946,13 @@
         <v>176</v>
       </c>
       <c r="F168" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
       <c r="G168" t="n">
-        <v>0.90303539401</v>
+        <v>0.9030353940119999</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0441236393644</v>
+        <v>0.0115542107326</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -3960,13 +3960,13 @@
         <v>97</v>
       </c>
       <c r="F169" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
       <c r="G169" t="n">
         <v>1.1457761028</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.009382295241369999</v>
+        <v>0.00740131570017</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -3974,13 +3974,13 @@
         <v>98</v>
       </c>
       <c r="F170" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
       <c r="G170" t="n">
-        <v>0.749199718482</v>
+        <v>0.749199718483</v>
       </c>
       <c r="H170" t="n">
-        <v>0.0032044652381</v>
+        <v>0.008775452482110001</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -3988,13 +3988,13 @@
         <v>177</v>
       </c>
       <c r="F171" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
       <c r="G171" t="n">
-        <v>0.543419529139</v>
+        <v>0.54341952914</v>
       </c>
       <c r="H171" t="n">
-        <v>0.000205783071019</v>
+        <v>-0.00364748924625</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -4002,13 +4002,13 @@
         <v>100</v>
       </c>
       <c r="F172" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
       <c r="G172" t="n">
         <v>0.520444071106</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.00760959137843</v>
+        <v>-0.00656619940473</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -4016,13 +4016,13 @@
         <v>178</v>
       </c>
       <c r="F173" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
       <c r="G173" t="n">
-        <v>0.639317093105</v>
+        <v>0.639317093106</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.00290636461627</v>
+        <v>0.00653745638759</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -4030,13 +4030,13 @@
         <v>179</v>
       </c>
       <c r="F174" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
       <c r="G174" t="n">
-        <v>0.698254137625</v>
+        <v>0.698254137626</v>
       </c>
       <c r="H174" t="n">
-        <v>0.0235993970423</v>
+        <v>0.0119770187473</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -4044,13 +4044,13 @@
         <v>102</v>
       </c>
       <c r="F175" t="n">
-        <v>0.668214472727</v>
+        <v>0.677605084256</v>
       </c>
       <c r="G175" t="n">
-        <v>0.684269076214</v>
+        <v>0.684269076215</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0160546034867</v>
+        <v>0.00666399195857</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -4058,13 +4058,13 @@
         <v>180</v>
       </c>
       <c r="F176" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
       <c r="G176" t="n">
-        <v>0.698254137625</v>
+        <v>0.698254137626</v>
       </c>
       <c r="H176" t="n">
-        <v>0.0235993970423</v>
+        <v>0.0119770187473</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -4072,13 +4072,13 @@
         <v>181</v>
       </c>
       <c r="F177" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
       <c r="G177" t="n">
-        <v>0.639317093105</v>
+        <v>0.639317093106</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.00290636461627</v>
+        <v>0.00653745638759</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -4086,13 +4086,13 @@
         <v>182</v>
       </c>
       <c r="F178" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
       <c r="G178" t="n">
         <v>0.520444071106</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.00760959137843</v>
+        <v>-0.00656619940473</v>
       </c>
     </row>
   </sheetData>
